--- a/biology/Mycologie/Puccinia_menthae/Puccinia_menthae.xlsx
+++ b/biology/Mycologie/Puccinia_menthae/Puccinia_menthae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Puccinia menthae est une espèce de champignons[1] phytopathogènes de la famille des Pucciniaceae et qui provoque de la rouille sur les plants de menthe. Il se manifeste par des écidies, qui vont coloniser progressivement toute la tige de la plante, provoquant sa déformation, ainsi que des taches brunes sur les feuilles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puccinia menthae est une espèce de champignons phytopathogènes de la famille des Pucciniaceae et qui provoque de la rouille sur les plants de menthe. Il se manifeste par des écidies, qui vont coloniser progressivement toute la tige de la plante, provoquant sa déformation, ainsi que des taches brunes sur les feuilles.
 </t>
         </is>
       </c>
